--- a/tests/testthat/fixtures/ex1/tables/dif_dich_mig.xlsx
+++ b/tests/testthat/fixtures/ex1/tables/dif_dich_mig.xlsx
@@ -9,14 +9,18 @@
     <sheet name="gof" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="facets" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="irt_type" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Estimates 0-1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Main effect 0-1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Estimates 1-2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Estimates 1-3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Estimates 2-3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Main effect 1-2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Main effect 1-3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Main effect 2-3" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">DIF.variable</t>
   </si>
@@ -52,12 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">dich</t>
@@ -507,19 +505,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>814</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
-        <v>11041</v>
+        <v>13597</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>11075</v>
+        <v>13633</v>
       </c>
       <c r="G2" t="n">
-        <v>11155</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="3">
@@ -530,19 +528,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>814</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>11032</v>
+        <v>13570</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>11094</v>
+        <v>13662</v>
       </c>
       <c r="G3" t="n">
-        <v>11240</v>
+        <v>13888</v>
       </c>
     </row>
   </sheetData>
@@ -568,19 +566,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>402</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +605,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -618,57 +624,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="E2" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="F2" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -676,28 +682,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>-0.023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12</v>
+        <v>0.143</v>
       </c>
       <c r="D3" t="n">
         <v>-0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="F3" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -705,28 +711,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n">
         <v>-0.064</v>
       </c>
       <c r="C4" t="n">
-        <v>0.117</v>
+        <v>0.137</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.056</v>
+        <v>-0.055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.299</v>
+        <v>0.218</v>
       </c>
       <c r="F4" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -734,28 +740,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.252</v>
+        <v>0.253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114</v>
+        <v>0.134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.222</v>
+        <v>0.217</v>
       </c>
       <c r="E5" t="n">
-        <v>4.886</v>
+        <v>3.565</v>
       </c>
       <c r="F5" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -763,28 +769,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.257</v>
+        <v>-0.259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108</v>
+        <v>0.128</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.227</v>
+        <v>-0.222</v>
       </c>
       <c r="E6" t="n">
-        <v>5.663</v>
+        <v>4.094</v>
       </c>
       <c r="F6" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -792,28 +798,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
         <v>0.094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107</v>
+        <v>0.126</v>
       </c>
       <c r="D7" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.772</v>
+        <v>0.557</v>
       </c>
       <c r="F7" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -821,28 +827,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106</v>
+        <v>0.125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.528</v>
+        <v>0.389</v>
       </c>
       <c r="F8" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -850,28 +856,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106</v>
+        <v>0.124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.084</v>
+        <v>0.082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.803</v>
+        <v>0.599</v>
       </c>
       <c r="F9" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -879,28 +885,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="n">
         <v>-0.071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.107</v>
+        <v>0.125</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.063</v>
+        <v>-0.061</v>
       </c>
       <c r="E10" t="n">
-        <v>0.44</v>
+        <v>0.323</v>
       </c>
       <c r="F10" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -908,28 +914,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="n">
         <v>0.054</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11</v>
+        <v>0.129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="E11" t="n">
-        <v>0.241</v>
+        <v>0.175</v>
       </c>
       <c r="F11" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -937,28 +943,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.179</v>
+        <v>0.181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.114</v>
+        <v>0.134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158</v>
+        <v>0.155</v>
       </c>
       <c r="E12" t="n">
-        <v>2.465</v>
+        <v>1.825</v>
       </c>
       <c r="F12" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -966,28 +972,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="C13" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.121</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.124</v>
-      </c>
       <c r="E13" t="n">
-        <v>1.339</v>
+        <v>0.986</v>
       </c>
       <c r="F13" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -995,28 +1001,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.132</v>
+        <v>0.157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.475</v>
+        <v>0.329</v>
       </c>
       <c r="F14" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1024,28 +1030,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.13</v>
+        <v>-0.131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.149</v>
+        <v>0.175</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.115</v>
+        <v>-0.112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.761</v>
+        <v>0.56</v>
       </c>
       <c r="F15" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1053,28 +1059,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>0.453</v>
+        <v>0.456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.442</v>
+        <v>0.518</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E16" t="n">
-        <v>1.05</v>
+        <v>0.775</v>
       </c>
       <c r="F16" t="n">
-        <v>54.369</v>
+        <v>63.858</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>812</v>
+        <v>998</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1096,35 +1102,1085 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>-0.519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.662</v>
+        <v>0.154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.358</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>998</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
-        <v>0.724</v>
+        <v>0.226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.64</v>
+        <v>0.147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="F3" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>998</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.117</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F4" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>998</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.936</v>
+      </c>
+      <c r="F6" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.991</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>998</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="F8" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>998</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="F10" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>998</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="F11" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>998</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>998</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="F13" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F14" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>998</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>998</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="F16" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>998</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.536</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.459</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.855</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>998</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="F3" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>998</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="F4" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>998</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.903</v>
+      </c>
+      <c r="F6" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.494</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>998</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="F8" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.122</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.104</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="F9" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>998</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="F10" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>998</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.166</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="F11" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>998</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.199</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>998</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="F13" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.175</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.582</v>
+      </c>
+      <c r="F14" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>998</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>998</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>63.858</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>998</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.218</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
